--- a/Documents/Support List.xlsx
+++ b/Documents/Support List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugob\BindingStories\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F831793-EE65-447D-A2C3-6EB8B0DBEE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3500A6-02AB-42BF-B207-DC0A4C259713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE3F45C8-0B53-41B3-92FA-5A76D1192141}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Character</t>
   </si>
@@ -57,33 +57,9 @@
     <t>Ashildr</t>
   </si>
   <si>
-    <t>Tristan</t>
-  </si>
-  <si>
-    <t>Albree</t>
-  </si>
-  <si>
-    <t>Elia</t>
-  </si>
-  <si>
-    <t>Adrova</t>
-  </si>
-  <si>
-    <t>Gerth</t>
-  </si>
-  <si>
     <t>Pearl</t>
   </si>
   <si>
-    <t>Nandil</t>
-  </si>
-  <si>
-    <t>Mevrick</t>
-  </si>
-  <si>
-    <t>Cath</t>
-  </si>
-  <si>
     <t>Lisri</t>
   </si>
   <si>
@@ -105,42 +81,12 @@
     <t>Eliot</t>
   </si>
   <si>
-    <t>Oswald</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Fargus</t>
-  </si>
-  <si>
-    <t>Bors</t>
-  </si>
-  <si>
-    <t>Eleanora</t>
-  </si>
-  <si>
-    <t>Melady</t>
-  </si>
-  <si>
     <t>Laëticia</t>
   </si>
   <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>Aline</t>
-  </si>
-  <si>
-    <t>Branwyne</t>
-  </si>
-  <si>
     <t>Rose</t>
   </si>
   <si>
-    <t>Krul</t>
-  </si>
-  <si>
     <t>Illescia</t>
   </si>
   <si>
@@ -150,9 +96,6 @@
     <t>Lyn</t>
   </si>
   <si>
-    <t>Guinivere</t>
-  </si>
-  <si>
     <t>Vetrelmar</t>
   </si>
   <si>
@@ -162,178 +105,13 @@
     <t>Felrindel</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Legault</t>
-  </si>
-  <si>
     <t>Nino</t>
   </si>
   <si>
-    <t>Limstella</t>
-  </si>
-  <si>
-    <t>Artoria</t>
-  </si>
-  <si>
-    <t>Morgane</t>
-  </si>
-  <si>
     <t>Héloïse (1023)</t>
   </si>
   <si>
     <t>Lierin</t>
-  </si>
-  <si>
-    <t>01~02</t>
-  </si>
-  <si>
-    <t>03~04</t>
-  </si>
-  <si>
-    <t>05~06</t>
-  </si>
-  <si>
-    <t>07~08</t>
-  </si>
-  <si>
-    <t>09~10</t>
-  </si>
-  <si>
-    <t>11~12</t>
-  </si>
-  <si>
-    <t>13~14</t>
-  </si>
-  <si>
-    <t>15~16</t>
-  </si>
-  <si>
-    <t>17~18</t>
-  </si>
-  <si>
-    <t>19~20</t>
-  </si>
-  <si>
-    <t>21~22</t>
-  </si>
-  <si>
-    <t>23~24</t>
-  </si>
-  <si>
-    <t>25~26</t>
-  </si>
-  <si>
-    <t>27~28</t>
-  </si>
-  <si>
-    <t>29~30</t>
-  </si>
-  <si>
-    <t>31~32</t>
-  </si>
-  <si>
-    <t>33~34</t>
-  </si>
-  <si>
-    <t>35~36</t>
-  </si>
-  <si>
-    <t>37~38</t>
-  </si>
-  <si>
-    <t>39~40</t>
-  </si>
-  <si>
-    <t>41~42</t>
-  </si>
-  <si>
-    <t>43~44</t>
-  </si>
-  <si>
-    <t>45~46</t>
-  </si>
-  <si>
-    <t>47~48</t>
-  </si>
-  <si>
-    <t>49~50</t>
-  </si>
-  <si>
-    <t>51~52</t>
-  </si>
-  <si>
-    <t>53~54</t>
-  </si>
-  <si>
-    <t>55~56</t>
-  </si>
-  <si>
-    <t>57~58</t>
-  </si>
-  <si>
-    <t>59~60</t>
-  </si>
-  <si>
-    <t>61~62</t>
-  </si>
-  <si>
-    <t>63~64</t>
-  </si>
-  <si>
-    <t>65~66</t>
-  </si>
-  <si>
-    <t>67~68</t>
-  </si>
-  <si>
-    <t>69~70</t>
-  </si>
-  <si>
-    <t>71~72</t>
-  </si>
-  <si>
-    <t>73~74</t>
-  </si>
-  <si>
-    <t>75~76</t>
-  </si>
-  <si>
-    <t>77~78</t>
-  </si>
-  <si>
-    <t>79~80</t>
-  </si>
-  <si>
-    <t>81~82</t>
-  </si>
-  <si>
-    <t>83~84</t>
-  </si>
-  <si>
-    <t>85~86</t>
-  </si>
-  <si>
-    <t>87~88</t>
-  </si>
-  <si>
-    <t>89~90</t>
-  </si>
-  <si>
-    <t>91~92</t>
-  </si>
-  <si>
-    <t>93~94</t>
-  </si>
-  <si>
-    <t>95~96</t>
-  </si>
-  <si>
-    <t>97~98</t>
-  </si>
-  <si>
-    <t>99~100</t>
   </si>
 </sst>
 </file>
@@ -375,12 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -697,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8124F9E1-5F5C-44C0-A17A-266D384BCE16}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,400 +487,205 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
+      <c r="B3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
+      <c r="B4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
+      <c r="B5" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
+      <c r="B6" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
+      <c r="B7" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
+      <c r="B8" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
+      <c r="B14" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>64</v>
+      <c r="B15" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
+      <c r="B16" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
+      <c r="B17" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
+      <c r="B18" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
+      <c r="B19" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
+      <c r="B20" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
+      <c r="B21" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>71</v>
+      <c r="B22" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
+      <c r="B23" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
+      <c r="B24" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
+      <c r="B25" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
+      <c r="B26" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
